--- a/app/Recursos Marcas/Noah/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Noah/Plantilla modificada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Referencia</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Color 6</t>
-  </si>
-  <si>
-    <t>Color 7</t>
   </si>
   <si>
     <t>Imágenes</t>
@@ -545,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,16 +594,13 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>72000</v>
@@ -615,33 +609,33 @@
         <v>61200</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>72000</v>
@@ -650,33 +644,33 @@
         <v>61200</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>72000</v>
@@ -685,30 +679,30 @@
         <v>61200</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>85000</v>
@@ -717,24 +711,24 @@
         <v>72250</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>116000</v>
@@ -743,27 +737,27 @@
         <v>98600</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>216000</v>
@@ -772,30 +766,30 @@
         <v>183600</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>216000</v>
@@ -804,27 +798,27 @@
         <v>183600</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>216000</v>
@@ -833,24 +827,24 @@
         <v>183600</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>216000</v>
@@ -859,24 +853,24 @@
         <v>183600</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>288000</v>
@@ -885,24 +879,24 @@
         <v>244800</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>288000</v>
@@ -911,24 +905,24 @@
         <v>244800</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>216000</v>
@@ -937,16 +931,16 @@
         <v>183600</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
